--- a/biology/Botanique/Serpyllopsis/Serpyllopsis.xlsx
+++ b/biology/Botanique/Serpyllopsis/Serpyllopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serpyllopsis est un genre obsolète de la famille des Hyménophyllacées, mais aussi un sous-genre issu des différentes révisions de la famille. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales caractéristiques du genre sont un limbe de petite taille, divisé une fois, avec des nervures réduites et une insertion particulière des frondes dans le rhizome.
 </t>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des espèces est issue de l'index IPNI - The international plant names index à la date de janvier 2013 :
-Serpyllopsis antarctica Bosch (1859)[1]
+Serpyllopsis antarctica Bosch (1859)
 Serpyllopsis caespitosa (Gaud.) C.Chr.
 Serpyllopsis caespitosa var. densifolia (Phil.) C.Chr. - synonyme : Hymenophyllum densifolium Phil.
 Serpyllopsis caespitosa var. dusenii (Christ) C.Chr. - synonyme : Hymenophyllum dusenii Christ
@@ -578,12 +594,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roelof Benjamin van den Bosch crée le genre en 1861 avec l'unique espèce Trichomanes caespitosum (Gaud.) Hook. mais qu'il ne renomme pas[2].
-En 1897, Konrad Hermann Heinrich Christ en fait un sous-genre du genre Trichomanes[3].
-En 1906, Carl Frederik Albert Christensen hésite à en fait un sous-genre du genre Trichomanes[4]. Mais en 1910, il restaure le genre de Roelof Benjamin van den Bosch avec l'unique espèce Serpyllopsis caespitosa et quatre variétés[5].
-En 2006, Atsushi Ebihara et al. replacent l'unique espèce Serpyllopsis caespitosa dans le genre Hymenophyllum, son genre d'origine, et précisent comme sous-genre Hymenophyllum dont ils font une espèce représentative[6]. Le genre Serpyllopsis est donc entièrement synonyme de Hymenophyllum, sous-genre Hymenophyllum.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roelof Benjamin van den Bosch crée le genre en 1861 avec l'unique espèce Trichomanes caespitosum (Gaud.) Hook. mais qu'il ne renomme pas.
+En 1897, Konrad Hermann Heinrich Christ en fait un sous-genre du genre Trichomanes.
+En 1906, Carl Frederik Albert Christensen hésite à en fait un sous-genre du genre Trichomanes. Mais en 1910, il restaure le genre de Roelof Benjamin van den Bosch avec l'unique espèce Serpyllopsis caespitosa et quatre variétés.
+En 2006, Atsushi Ebihara et al. replacent l'unique espèce Serpyllopsis caespitosa dans le genre Hymenophyllum, son genre d'origine, et précisent comme sous-genre Hymenophyllum dont ils font une espèce représentative. Le genre Serpyllopsis est donc entièrement synonyme de Hymenophyllum, sous-genre Hymenophyllum.
 </t>
         </is>
       </c>
